--- a/TestList/7.0QYGK-Study.xlsx
+++ b/TestList/7.0QYGK-Study.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>序号
 （id）</t>
@@ -40,7 +40,7 @@
 （text）</t>
   </si>
   <si>
-    <t>go</t>
+    <t>url</t>
   </si>
   <si>
     <t>访问</t>
@@ -55,15 +55,24 @@
     <t>空</t>
   </si>
   <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Close pop-up window</t>
   </si>
   <si>
     <t>点击</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
     <t>//a[contains(@class,'btn-normal btn')]</t>
   </si>
   <si>
@@ -85,7 +94,7 @@
     <t>//input[contains(@ng-model,'model.use.password')]</t>
   </si>
   <si>
-    <t>xy000000</t>
+    <t>000000</t>
   </si>
   <si>
     <t>Verification Code</t>
@@ -97,13 +106,7 @@
     <t>adce</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>Wait2</t>
   </si>
   <si>
     <t>Login</t>
@@ -115,7 +118,7 @@
     <t>重跑</t>
   </si>
   <si>
-    <t>Wait1</t>
+    <t>Wait3</t>
   </si>
   <si>
     <t>go Study</t>
@@ -127,7 +130,7 @@
     <t>my study</t>
   </si>
   <si>
-    <t>//a[contains(@class,'p-ico ico-course')]</t>
+    <t>//ul[contains(@class,'m-left-list')]/li[1]/a</t>
   </si>
   <si>
     <t>Find the entrance</t>
@@ -145,7 +148,7 @@
     <t>//a[contains(@class,'ui-btn btn-o ng-scope')]</t>
   </si>
   <si>
-    <t>Wait3</t>
+    <t>Wait4</t>
   </si>
   <si>
     <t>Enter play</t>
@@ -160,7 +163,7 @@
     <t>https://gsqygq.59iedu.com/play/#/learn/2c90814e7a197175017b33df21975849/2c9081517af6cbd7017b2fbbb4864992/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=</t>
   </si>
   <si>
-    <t>Wait4</t>
+    <t>Wait5</t>
   </si>
   <si>
     <t>Play</t>
@@ -169,7 +172,7 @@
     <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/button</t>
   </si>
   <si>
-    <t>Wait5</t>
+    <t>Wait6</t>
   </si>
 </sst>
 </file>
@@ -177,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -199,6 +202,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -207,7 +211,74 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,114 +293,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,39 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,21 +557,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +590,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1209,8 +1212,8 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1218,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1229,7 +1232,7 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1241,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1249,7 +1252,7 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1261,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1287,10 +1290,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1298,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1327,27 +1330,30 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1355,16 +1361,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1375,16 +1381,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1395,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1424,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1435,16 +1441,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1455,16 +1461,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1484,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1495,27 +1501,48 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
       <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://gsqygq.59iedu.com/index" tooltip="https://gsqygq.59iedu.com/index"/>
-    <hyperlink ref="E16" r:id="rId2" display="https://gsqygq.59iedu.com/play/#/learn/2c90814e7a197175017b33df21975849/2c9081517af6cbd7017b2fbbb4864992/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=" tooltip="https://gsqygq.59iedu.com/play/#/learn/2c90814e7a197175017b33df21975849/2c9081517af6cbd7017b2fbbb4864992/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName="/>
+    <hyperlink ref="E17" r:id="rId2" display="https://gsqygq.59iedu.com/play/#/learn/2c90814e7a197175017b33df21975849/2c9081517af6cbd7017b2fbbb4864992/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=" tooltip="https://gsqygq.59iedu.com/play/#/learn/2c90814e7a197175017b33df21975849/2c9081517af6cbd7017b2fbbb4864992/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName="/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>